--- a/data/trans_orig/P33B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82F2FE1-9888-47B4-8B8B-B32D43783A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1321E5CE-05AE-43CC-96AB-93EB100DA421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49750BCD-480D-4BD0-B8F1-E514222F8D95}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC2F894F-BFBE-44CF-8D5B-A9DCEBA13FBB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,646 +74,652 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>3,46%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>57,46%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1128,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64401362-8D0B-4067-B021-935666782181}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8C1A9D-56D7-4443-8EA3-DA2A5896E923}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1766,13 +1772,13 @@
         <v>73159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -1781,13 +1787,13 @@
         <v>134119</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>273</v>
@@ -1796,13 +1802,13 @@
         <v>207278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1823,13 @@
         <v>60117</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>167</v>
@@ -1832,13 +1838,13 @@
         <v>104832</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>231</v>
@@ -1847,13 +1853,13 @@
         <v>164949</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1874,13 @@
         <v>151389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>398</v>
@@ -1883,13 +1889,13 @@
         <v>235537</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>575</v>
@@ -1898,13 +1904,13 @@
         <v>386927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1925,13 @@
         <v>753611</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>757</v>
@@ -1934,13 +1940,13 @@
         <v>584265</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1399</v>
@@ -1949,13 +1955,13 @@
         <v>1337876</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,7 +2017,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2023,13 +2029,13 @@
         <v>45647</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
@@ -2038,7 +2044,7 @@
         <v>68856</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>128</v>
@@ -2080,7 +2086,7 @@
         <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
@@ -2089,10 +2095,10 @@
         <v>83530</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>137</v>
@@ -2140,13 +2146,13 @@
         <v>145669</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>360</v>
@@ -2316,7 +2322,7 @@
         <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2337,13 @@
         <v>80068</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>172</v>
@@ -2346,13 +2352,13 @@
         <v>127519</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>262</v>
@@ -2361,10 +2367,10 @@
         <v>207587</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>175</v>
@@ -2445,7 +2451,7 @@
         <v>815</v>
       </c>
       <c r="I27" s="7">
-        <v>634564</v>
+        <v>634565</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>188</v>
@@ -2496,7 +2502,7 @@
         <v>1561</v>
       </c>
       <c r="I28" s="7">
-        <v>1147669</v>
+        <v>1147670</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2543,7 +2549,7 @@
         <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>657</v>
@@ -2552,13 +2558,13 @@
         <v>443123</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>929</v>
@@ -2567,10 +2573,10 @@
         <v>693532</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>201</v>
@@ -2639,13 +2645,13 @@
         <v>563134</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>1311</v>
@@ -2654,13 +2660,13 @@
         <v>782173</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>1954</v>
@@ -2672,10 +2678,10 @@
         <v>182</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2696,13 @@
         <v>2344649</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>2801</v>
@@ -2705,13 +2711,13 @@
         <v>2185675</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>5012</v>
@@ -2720,13 +2726,13 @@
         <v>4530324</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2788,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1321E5CE-05AE-43CC-96AB-93EB100DA421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBE2895-8581-4B10-A71A-470FA7B22D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC2F894F-BFBE-44CF-8D5B-A9DCEBA13FBB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{890D1F37-9D0A-4243-A29C-A6834589DE05}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>8,84%</t>
@@ -302,7 +302,7 @@
     <t>62,91%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>7,05%</t>
@@ -413,7 +413,7 @@
     <t>67,0%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>6,26%</t>
@@ -1134,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8C1A9D-56D7-4443-8EA3-DA2A5896E923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73551C87-1B45-4365-821F-A196C8DA1115}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBE2895-8581-4B10-A71A-470FA7B22D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E852B2D9-D964-44E7-B1D1-73DEE4CBBD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{890D1F37-9D0A-4243-A29C-A6834589DE05}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C84D413-D2D4-4CC6-84F1-79940D194464}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,652 +74,646 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
     <t>11,65%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>12,59%</t>
+    <t>12,65%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>10,42%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>57,46%</t>
   </si>
   <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73551C87-1B45-4365-821F-A196C8DA1115}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6B77C4-D62C-47B8-A0C2-B9260CD0A0D6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1772,13 +1766,13 @@
         <v>73159</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -1787,13 +1781,13 @@
         <v>134119</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>273</v>
@@ -1802,13 +1796,13 @@
         <v>207278</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1817,13 @@
         <v>60117</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>167</v>
@@ -1838,13 +1832,13 @@
         <v>104832</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>231</v>
@@ -1853,13 +1847,13 @@
         <v>164949</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1868,13 @@
         <v>151389</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>398</v>
@@ -1889,13 +1883,13 @@
         <v>235537</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>575</v>
@@ -1904,13 +1898,13 @@
         <v>386927</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1919,13 @@
         <v>753611</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>757</v>
@@ -1940,13 +1934,13 @@
         <v>584265</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1399</v>
@@ -1955,13 +1949,13 @@
         <v>1337876</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2011,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2023,13 @@
         <v>45647</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
@@ -2044,7 +2038,7 @@
         <v>68856</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>128</v>
@@ -2086,7 +2080,7 @@
         <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
@@ -2095,10 +2089,10 @@
         <v>83530</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>137</v>
@@ -2146,13 +2140,13 @@
         <v>145669</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>360</v>
@@ -2322,7 +2316,7 @@
         <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2331,13 @@
         <v>80068</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>172</v>
@@ -2352,13 +2346,13 @@
         <v>127519</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>262</v>
@@ -2367,10 +2361,10 @@
         <v>207587</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>175</v>
@@ -2451,7 +2445,7 @@
         <v>815</v>
       </c>
       <c r="I27" s="7">
-        <v>634565</v>
+        <v>634564</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>188</v>
@@ -2502,7 +2496,7 @@
         <v>1561</v>
       </c>
       <c r="I28" s="7">
-        <v>1147670</v>
+        <v>1147669</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2549,7 +2543,7 @@
         <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="H29" s="7">
         <v>657</v>
@@ -2558,13 +2552,13 @@
         <v>443123</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>929</v>
@@ -2573,10 +2567,10 @@
         <v>693532</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>201</v>
@@ -2645,13 +2639,13 @@
         <v>563134</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="H31" s="7">
         <v>1311</v>
@@ -2660,13 +2654,13 @@
         <v>782173</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>1954</v>
@@ -2678,10 +2672,10 @@
         <v>182</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2690,13 @@
         <v>2344649</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>2801</v>
@@ -2711,13 +2705,13 @@
         <v>2185675</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>5012</v>
@@ -2726,13 +2720,13 @@
         <v>4530324</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2782,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Habitat-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente cansado cuando despierta por la mañana en 2023</t>
+          <t>Población según la frecuencia con la que se siente cansado cuando despierta por la mañana en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
